--- a/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.21262385955974378, 0.07529032599515867, 0.10340021105703882, 0.06688382568203936, 0.04187258675481803, 0.19296588660627212, 0.32560474823588526, 0.17572974856412568, 0.03528694163264741, 0.05406449694684162, 0.0577469080820669, 0.012877242238997404, 0.15779499682617557, 0.3100053258955958, 0.15144080541633376, 0.0010807386165646916, 0.04017423819544801, 0.026467968265428847, -0.007158722646460934]</t>
+    <t>[1.0, 0.228907528583736, 0.09538452892358093, 0.14228286298227724, 0.09928889169104207, 0.06383026520644189, 0.2015639282132029, 0.3394807651048156, 0.18311080742058392, 0.04375830110136642, 0.07838524168038673, 0.09029172830065485, 0.031147295562521993, 0.17353070558452627, 0.3226748149391493, 0.15552612993285225, 0.010828395862666302, 0.06589093519872523, 0.057323253835243365, -0.002552218692806691]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.2092967758037653, 0.07249458564993277, 0.10480220818339674, 0.06819853810308928, 0.040672243371456716, 0.19127616741882666, 0.32181277231045924, 0.17389226724091802, 0.0355946698281903, 0.05521503062263752, 0.05897915828522973, 0.013413487042602073, 0.15580651845556104, 0.3072501473127087, 0.14990690995558545, 0.0017331863438872237, 0.040969868963442915, 0.026661197257683133, -0.007116626777000597]</t>
+    <t>[1.0, 0.2265631528631676, 0.09276183708173537, 0.1448534695558428, 0.10153516502393309, 0.0633902165221686, 0.20044946287356, 0.3366031374618973, 0.1813720031402772, 0.04388853382947027, 0.07955141366456671, 0.09165940500508725, 0.03150290542297787, 0.1723662681634362, 0.321271681104698, 0.1550717377286061, 0.011236230688369259, 0.06622689403941319, 0.057057576155967155, -0.0031778573396040477]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>3076.86465137476</v>
+        <v>3968.50512356841</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1234521727377149</v>
+        <v>0.03773312853246484</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1394397578864278</v>
+        <v>0.1398872671655756</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>879.0626802071353</v>
+        <v>924.0722602314153</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8838441165342414</v>
+        <v>0.8557046979865772</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.4306139585734692</v>
+        <v>0.1508203477638428</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1535499012469229</v>
+        <v>0.1819105945768426</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>918.8977458070067</v>
+        <v>951.2803638735879</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.306372138250548</v>
+        <v>1.408848748468536</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.02828024968310232</v>
+        <v>0.02304789272140188</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>843.0544412962871</v>
+        <v>899.9544305974064</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.228907528583736, 0.09538452892358093, 0.14228286298227724, 0.09928889169104207, 0.06383026520644189, 0.2015639282132029, 0.3394807651048156, 0.18311080742058392, 0.04375830110136642, 0.07838524168038673, 0.09029172830065485, 0.031147295562521993, 0.17353070558452627, 0.3226748149391493, 0.15552612993285225, 0.010828395862666302, 0.06589093519872523, 0.057323253835243365, -0.002552218692806691]</t>
+    <t>[1.0, 0.2219175969280435, 0.07820482702373979, 0.12934056071917785, 0.08718744929392527, 0.04811436564015423, 0.1956915170073739, 0.3367260556058545, 0.17611139220178573, 0.035925830658739964, 0.07052862951986745, 0.0810116737968763, 0.02254840769355749, 0.16594972618090406, 0.32132208397379625, 0.15022154421323144, 0.00275541430796133, 0.05809578029869869, 0.05011030506278425, -0.00842494278007941]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2265631528631676, 0.09276183708173537, 0.1448534695558428, 0.10153516502393309, 0.0633902165221686, 0.20044946287356, 0.3366031374618973, 0.1813720031402772, 0.04388853382947027, 0.07955141366456671, 0.09165940500508725, 0.03150290542297787, 0.1723662681634362, 0.321271681104698, 0.1550717377286061, 0.011236230688369259, 0.06622689403941319, 0.057057576155967155, -0.0031778573396040477]</t>
+    <t>[0.9999999999999999, 0.2213466242475205, 0.07888934827472299, 0.13056672309671116, 0.08869891259808177, 0.04893962242323496, 0.1955436243557061, 0.3355776206995872, 0.17590937937808987, 0.03646401684858577, 0.07177830521233783, 0.08222912365208797, 0.02324596276383912, 0.16587603700564602, 0.3206657637269602, 0.15051102080368886, 0.0038222597478946314, 0.05888788940559675, 0.05076867904840815, -0.007960980997903083]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.03773312853246484</v>
+        <v>-0.0835791708173058</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1398872671655756</v>
+        <v>3.677798340639166</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>924.0722602314153</v>
+        <v>924.5770670424745</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1508203477638428</v>
+        <v>0.07810602730467787</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1819105945768426</v>
+        <v>4.434734591741209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>951.2803638735879</v>
+        <v>954.3715624016675</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.408848748468536</v>
+        <v>0.7716092784002508</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.02304789272140188</v>
+        <v>1.993037058717917</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>899.9544305974064</v>
+        <v>899.5814637093338</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.20594427069695062, 0.06006621086156469, 0.09207440214077388, 0.05625296896985664, 0.027636848526349084, 0.18801457415450346, 0.32188409187174327, 0.16985284378943125, 0.02939092019362559, 0.04765202641140938, 0.050274954693822343, 0.006145171295684403, 0.15168318649727952, 0.30761885353905827, 0.14685921967267745, -0.005398278174929921, 0.033809148212821244, 0.020890800674089372, -0.011603834855487171]</t>
+    <t>[0.9999999999999999, 0.21262385955974378, 0.07529032599515867, 0.10340021105703882, 0.06688382568203936, 0.04187258675481803, 0.19296588660627212, 0.32560474823588526, 0.17572974856412568, 0.03528694163264741, 0.05406449694684162, 0.0577469080820669, 0.012877242238997404, 0.15779499682617557, 0.3100053258955958, 0.15144080541633376, 0.0010807386165646916, 0.04017423819544801, 0.026467968265428847, -0.007158722646460934]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.205295346909541, 0.06075471951555531, 0.09314016897555168, 0.057266547198204065, 0.02856088953883846, 0.18773725828099175, 0.3206786189532619, 0.16976940054464718, 0.030065757922773887, 0.04867044138966909, 0.05132116976535791, 0.006952881382723856, 0.15126974232884935, 0.3065313633098099, 0.14665546731197532, -0.004397587010384064, 0.0347545816851627, 0.021472472441026708, -0.01085086447108815]</t>
+    <t>[0.9999999999999999, 0.2092967758037653, 0.07249458564993277, 0.10480220818339674, 0.06819853810308928, 0.040672243371456716, 0.19127616741882666, 0.32181277231045924, 0.17389226724091802, 0.0355946698281903, 0.05521503062263752, 0.05897915828522973, 0.013413487042602073, 0.15580651845556104, 0.3072501473127087, 0.14990690995558545, 0.0017331863438872237, 0.040969868963442915, 0.026661197257683133, -0.007116626777000597]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.2455702810841456</v>
+        <v>-0.1234521727377149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3.841428987901052</v>
+        <v>0.1394397578864278</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>878.9267428845252</v>
+        <v>879.0626802071353</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.383910241815672</v>
+        <v>-0.4306139585734692</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>3.941075982743599</v>
+        <v>0.1535499012469229</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>920.6533090877099</v>
+        <v>918.8977458070067</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.4996512848580165</v>
+        <v>1.306372138250548</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>2.481353587443943</v>
+        <v>0.02828024968310232</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>842.461075380643</v>
+        <v>843.0544412962871</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.21262385955974378, 0.07529032599515867, 0.10340021105703882, 0.06688382568203936, 0.04187258675481803, 0.19296588660627212, 0.32560474823588526, 0.17572974856412568, 0.03528694163264741, 0.05406449694684162, 0.0577469080820669, 0.012877242238997404, 0.15779499682617557, 0.3100053258955958, 0.15144080541633376, 0.0010807386165646916, 0.04017423819544801, 0.026467968265428847, -0.007158722646460934]</t>
+    <t>[1.0, 0.2126238595597438, 0.07529032599515875, 0.10340021105703888, 0.06688382568203938, 0.04187258675481809, 0.1929658866062721, 0.32560474823588526, 0.1757297485641258, 0.03528694163264746, 0.05406449694684165, 0.05774690808206696, 0.012877242238997421, 0.1577949968261755, 0.31000532589559565, 0.15144080541633373, 0.0010807386165647321, 0.04017423819544805, 0.02646796826542888, -0.007158722646460904]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.2092967758037653, 0.07249458564993277, 0.10480220818339674, 0.06819853810308928, 0.040672243371456716, 0.19127616741882666, 0.32181277231045924, 0.17389226724091802, 0.0355946698281903, 0.05521503062263752, 0.05897915828522973, 0.013413487042602073, 0.15580651845556104, 0.3072501473127087, 0.14990690995558545, 0.0017331863438872237, 0.040969868963442915, 0.026661197257683133, -0.007116626777000597]</t>
+    <t>[1.0, 0.2092967758037652, 0.07249458564993276, 0.10480220818339675, 0.06819853810308922, 0.04067224337145666, 0.19127616741882678, 0.32181277231045924, 0.17389226724091802, 0.035594669828190297, 0.055215030622637475, 0.058979158285229705, 0.013413487042602078, 0.155806518455561, 0.3072501473127086, 0.14990690995558537, 0.001733186343887209, 0.04096986896344292, 0.0266611972576831, -0.00711662677700059]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1234521727377149</v>
+        <v>-0.1234521727377153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1394397578864278</v>
+        <v>0.1394397578864281</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8838441165342414</v>
+        <v>0.4691705161679052</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.4306139585734692</v>
+        <v>-0.4306139585734711</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1535499012469229</v>
+        <v>0.1535499012469225</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>918.8977458070067</v>
+        <v>918.8977458070069</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.306372138250548</v>
+        <v>1.306372138250547</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.02828024968310232</v>
+        <v>0.02828024968310241</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>843.0544412962871</v>
+        <v>843.0544412962869</v>
       </c>
     </row>
     <row r="10" spans="1:2">
